--- a/biology/Zoologie/Brissus/Brissus.xlsx
+++ b/biology/Zoologie/Brissus/Brissus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brissus est un genre d'oursins irréguliers de la famille des Brissidae (ordre des Spatangoida).
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers dont la bouche et l'anus se sont déplacés de leurs pôles pour former un « avant » et un « arrière ». La bouche se situe donc dans le premier quart de la face orale, et l'anus se trouve à l'opposé, tourné vers l'arrière. La coquille (appelée « test ») s'est également allongée dans ce sens antéro-postérieur.
 Le test est ovale et aplati dorsalement avec un profil ovale, sans sulcus antérieur. 
@@ -524,8 +538,8 @@
 Ces oursins n'ont pas de gros tubercules primaires différenciés, et les radioles sont plus grossières autour de la partie aborale antérieure. 
 Le plastron est très large et distinctement courbé latéralement. 
 Les zones ambulacraires postérieures de la face orale sont subparallèles et étroites. La plaque ambulacraire no 6 s'étend jusqu'à pénétrer le fasciole subanal. 
-Le fasciole subanal est bien développé, bilobé et pourvu de 4 podia pénicillés de chaque côté. Le fasciole péripétaleux est bien développé également, indenté sur les 5 ambulacres[2].
-Ce genre semble être apparu à l'Éocène et demeure répandu dans tous les principaux bassins océaniques, y compris la Méditerranée. On les trouve principalement à faible profondeur, dans le sable ou les graviers[2].
+Le fasciole subanal est bien développé, bilobé et pourvu de 4 podia pénicillés de chaque côté. Le fasciole péripétaleux est bien développé également, indenté sur les 5 ambulacres.
+Ce genre semble être apparu à l'Éocène et demeure répandu dans tous les principaux bassins océaniques, y compris la Méditerranée. On les trouve principalement à faible profondeur, dans le sable ou les graviers.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (5 janvier 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (5 janvier 2015) :
 Brissus agassizii Döderlein, 1885 -- Japon (et peut-être Australie tempérée)
 Brissus camagueyensis Weisbord, 1934 †
 Brissus caobaense Sánchez Roig, 1953c †
